--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.368821622271543</v>
+        <v>0.426842</v>
       </c>
       <c r="H2">
-        <v>0.368821622271543</v>
+        <v>1.280526</v>
       </c>
       <c r="I2">
-        <v>0.1428089317080233</v>
+        <v>0.1306859346518278</v>
       </c>
       <c r="J2">
-        <v>0.1428089317080233</v>
+        <v>0.1400052699078422</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P2">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q2">
-        <v>0.1039202747085562</v>
+        <v>0.0022836047</v>
       </c>
       <c r="R2">
-        <v>0.1039202747085562</v>
+        <v>0.0205524423</v>
       </c>
       <c r="S2">
-        <v>0.03329212273535437</v>
+        <v>0.0004414518516349139</v>
       </c>
       <c r="T2">
-        <v>0.03329212273535437</v>
+        <v>0.0005943141542267496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.368821622271543</v>
+        <v>0.426842</v>
       </c>
       <c r="H3">
-        <v>0.368821622271543</v>
+        <v>1.280526</v>
       </c>
       <c r="I3">
-        <v>0.1428089317080233</v>
+        <v>0.1306859346518278</v>
       </c>
       <c r="J3">
-        <v>0.1428089317080233</v>
+        <v>0.1400052699078422</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N3">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O3">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P3">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q3">
-        <v>0.3418531453855966</v>
+        <v>0.1666422469746667</v>
       </c>
       <c r="R3">
-        <v>0.3418531453855966</v>
+        <v>1.499780222772</v>
       </c>
       <c r="S3">
-        <v>0.1095168089726689</v>
+        <v>0.03221421311997179</v>
       </c>
       <c r="T3">
-        <v>0.1095168089726689</v>
+        <v>0.04336908488110668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.889998087234211</v>
+        <v>0.426842</v>
       </c>
       <c r="H4">
-        <v>0.889998087234211</v>
+        <v>1.280526</v>
       </c>
       <c r="I4">
-        <v>0.3446101540286737</v>
+        <v>0.1306859346518278</v>
       </c>
       <c r="J4">
-        <v>0.3446101540286737</v>
+        <v>0.1400052699078422</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N4">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O4">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P4">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q4">
-        <v>0.2507685019816282</v>
+        <v>0.09288992516266667</v>
       </c>
       <c r="R4">
-        <v>0.2507685019816282</v>
+        <v>0.8360093264640001</v>
       </c>
       <c r="S4">
-        <v>0.08033673669115067</v>
+        <v>0.01795688608509511</v>
       </c>
       <c r="T4">
-        <v>0.08033673669115067</v>
+        <v>0.02417484834798085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.889998087234211</v>
+        <v>0.426842</v>
       </c>
       <c r="H5">
-        <v>0.889998087234211</v>
+        <v>1.280526</v>
       </c>
       <c r="I5">
-        <v>0.3446101540286737</v>
+        <v>0.1306859346518278</v>
       </c>
       <c r="J5">
-        <v>0.3446101540286737</v>
+        <v>0.1400052699078422</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.926879349643739</v>
+        <v>0.9704174999999999</v>
       </c>
       <c r="N5">
-        <v>0.926879349643739</v>
+        <v>1.940835</v>
       </c>
       <c r="O5">
-        <v>0.7668764667785554</v>
+        <v>0.6127161565508692</v>
       </c>
       <c r="P5">
-        <v>0.7668764667785554</v>
+        <v>0.513316552811434</v>
       </c>
       <c r="Q5">
-        <v>0.8249208482798172</v>
+        <v>0.414214946535</v>
       </c>
       <c r="R5">
-        <v>0.8249208482798172</v>
+        <v>2.48528967921</v>
       </c>
       <c r="S5">
-        <v>0.2642734173375231</v>
+        <v>0.08007338359512599</v>
       </c>
       <c r="T5">
-        <v>0.2642734173375231</v>
+        <v>0.07186702252452797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.319168923473047</v>
+        <v>1.199237333333333</v>
       </c>
       <c r="H6">
-        <v>0.319168923473047</v>
+        <v>3.597712</v>
       </c>
       <c r="I6">
-        <v>0.1235832452415913</v>
+        <v>0.3671697062988934</v>
       </c>
       <c r="J6">
-        <v>0.1235832452415913</v>
+        <v>0.393352918730805</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P6">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q6">
-        <v>0.08992998295889858</v>
+        <v>0.006415919733333332</v>
       </c>
       <c r="R6">
-        <v>0.08992998295889858</v>
+        <v>0.0577432776</v>
       </c>
       <c r="S6">
-        <v>0.02881016277769205</v>
+        <v>0.001240284558102803</v>
       </c>
       <c r="T6">
-        <v>0.02881016277769205</v>
+        <v>0.001669760055189373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.319168923473047</v>
+        <v>1.199237333333333</v>
       </c>
       <c r="H7">
-        <v>0.319168923473047</v>
+        <v>3.597712</v>
       </c>
       <c r="I7">
-        <v>0.1235832452415913</v>
+        <v>0.3671697062988934</v>
       </c>
       <c r="J7">
-        <v>0.1235832452415913</v>
+        <v>0.393352918730805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N7">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O7">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P7">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q7">
-        <v>0.2958310842151901</v>
+        <v>0.4681910493404444</v>
       </c>
       <c r="R7">
-        <v>0.2958310842151901</v>
+        <v>4.213719444064</v>
       </c>
       <c r="S7">
-        <v>0.09477308246389927</v>
+        <v>0.09050769848662187</v>
       </c>
       <c r="T7">
-        <v>0.09477308246389927</v>
+        <v>0.1218479570940192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.379943543562426</v>
+        <v>1.199237333333333</v>
       </c>
       <c r="H8">
-        <v>0.379943543562426</v>
+        <v>3.597712</v>
       </c>
       <c r="I8">
-        <v>0.1471153758050625</v>
+        <v>0.3671697062988934</v>
       </c>
       <c r="J8">
-        <v>0.1471153758050625</v>
+        <v>0.393352918730805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N8">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O8">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P8">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q8">
-        <v>0.1070540202539422</v>
+        <v>0.2609796274631111</v>
       </c>
       <c r="R8">
-        <v>0.1070540202539422</v>
+        <v>2.348816647168</v>
       </c>
       <c r="S8">
-        <v>0.03429605619887679</v>
+        <v>0.05045091200879927</v>
       </c>
       <c r="T8">
-        <v>0.03429605619887679</v>
+        <v>0.0679206373003835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.379943543562426</v>
+        <v>1.199237333333333</v>
       </c>
       <c r="H9">
-        <v>0.379943543562426</v>
+        <v>3.597712</v>
       </c>
       <c r="I9">
-        <v>0.1471153758050625</v>
+        <v>0.3671697062988934</v>
       </c>
       <c r="J9">
-        <v>0.1471153758050625</v>
+        <v>0.393352918730805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.926879349643739</v>
+        <v>0.9704174999999999</v>
       </c>
       <c r="N9">
-        <v>0.926879349643739</v>
+        <v>1.940835</v>
       </c>
       <c r="O9">
-        <v>0.7668764667785554</v>
+        <v>0.6127161565508692</v>
       </c>
       <c r="P9">
-        <v>0.7668764667785554</v>
+        <v>0.513316552811434</v>
       </c>
       <c r="Q9">
-        <v>0.352161824558479</v>
+        <v>1.16376089492</v>
       </c>
       <c r="R9">
-        <v>0.352161824558479</v>
+        <v>6.98256536952</v>
       </c>
       <c r="S9">
-        <v>0.1128193196061857</v>
+        <v>0.2249708112453694</v>
       </c>
       <c r="T9">
-        <v>0.1128193196061857</v>
+        <v>0.201914564281213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.624690757895457</v>
+        <v>0.5942793333333333</v>
       </c>
       <c r="H10">
-        <v>0.624690757895457</v>
+        <v>1.782838</v>
       </c>
       <c r="I10">
-        <v>0.2418822932166492</v>
+        <v>0.1819501129713847</v>
       </c>
       <c r="J10">
-        <v>0.2418822932166492</v>
+        <v>0.1949251443484612</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N10">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O10">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P10">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q10">
-        <v>0.1760147216114041</v>
+        <v>0.003179394433333333</v>
       </c>
       <c r="R10">
-        <v>0.1760147216114041</v>
+        <v>0.02861454989999999</v>
       </c>
       <c r="S10">
-        <v>0.05638845481837072</v>
+        <v>0.0006146201922218578</v>
       </c>
       <c r="T10">
-        <v>0.05638845481837072</v>
+        <v>0.0008274457981277301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5942793333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.782838</v>
+      </c>
+      <c r="I11">
+        <v>0.1819501129713847</v>
+      </c>
+      <c r="J11">
+        <v>0.1949251443484612</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.171222</v>
+      </c>
+      <c r="O11">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P11">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q11">
+        <v>0.2320110097817777</v>
+      </c>
+      <c r="R11">
+        <v>2.088099088036</v>
+      </c>
+      <c r="S11">
+        <v>0.04485088416040304</v>
+      </c>
+      <c r="T11">
+        <v>0.06038147804204089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5942793333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.782838</v>
+      </c>
+      <c r="I12">
+        <v>0.1819501129713847</v>
+      </c>
+      <c r="J12">
+        <v>0.1949251443484612</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.652864</v>
+      </c>
+      <c r="O12">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P12">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q12">
+        <v>0.1293278608924444</v>
+      </c>
+      <c r="R12">
+        <v>1.163950748032</v>
+      </c>
+      <c r="S12">
+        <v>0.02500083471493651</v>
+      </c>
+      <c r="T12">
+        <v>0.03365791735506931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5942793333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.782838</v>
+      </c>
+      <c r="I13">
+        <v>0.1819501129713847</v>
+      </c>
+      <c r="J13">
+        <v>0.1949251443484612</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.940835</v>
+      </c>
+      <c r="O13">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P13">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q13">
+        <v>0.5766990649549999</v>
+      </c>
+      <c r="R13">
+        <v>3.46019438973</v>
+      </c>
+      <c r="S13">
+        <v>0.1114837739038233</v>
+      </c>
+      <c r="T13">
+        <v>0.1000583031532233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3935786666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.180736</v>
+      </c>
+      <c r="I14">
+        <v>0.1205017217432997</v>
+      </c>
+      <c r="J14">
+        <v>0.1290948113274592</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00535</v>
+      </c>
+      <c r="N14">
+        <v>0.01605</v>
+      </c>
+      <c r="O14">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P14">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q14">
+        <v>0.002105645866666667</v>
+      </c>
+      <c r="R14">
+        <v>0.0189508128</v>
+      </c>
+      <c r="S14">
+        <v>0.0004070499884360035</v>
+      </c>
+      <c r="T14">
+        <v>0.0005479998978584389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3935786666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.180736</v>
+      </c>
+      <c r="I15">
+        <v>0.1205017217432997</v>
+      </c>
+      <c r="J15">
+        <v>0.1290948113274592</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.171222</v>
+      </c>
+      <c r="O15">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P15">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q15">
+        <v>0.1536559977102222</v>
+      </c>
+      <c r="R15">
+        <v>1.382903979392</v>
+      </c>
+      <c r="S15">
+        <v>0.02970379448946996</v>
+      </c>
+      <c r="T15">
+        <v>0.03998937921305649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3935786666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.180736</v>
+      </c>
+      <c r="I16">
+        <v>0.1205017217432997</v>
+      </c>
+      <c r="J16">
+        <v>0.1290948113274592</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.652864</v>
+      </c>
+      <c r="O16">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P16">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q16">
+        <v>0.08565111421155557</v>
+      </c>
+      <c r="R16">
+        <v>0.770860027904</v>
+      </c>
+      <c r="S16">
+        <v>0.01655752546107682</v>
+      </c>
+      <c r="T16">
+        <v>0.02229092868009046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.624690757895457</v>
-      </c>
-      <c r="H11">
-        <v>0.624690757895457</v>
-      </c>
-      <c r="I11">
-        <v>0.2418822932166492</v>
-      </c>
-      <c r="J11">
-        <v>0.2418822932166492</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="N11">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="O11">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="P11">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="Q11">
-        <v>0.5790129634065956</v>
-      </c>
-      <c r="R11">
-        <v>0.5790129634065956</v>
-      </c>
-      <c r="S11">
-        <v>0.1854938383982785</v>
-      </c>
-      <c r="T11">
-        <v>0.1854938383982785</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3935786666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.180736</v>
+      </c>
+      <c r="I17">
+        <v>0.1205017217432997</v>
+      </c>
+      <c r="J17">
+        <v>0.1290948113274592</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.940835</v>
+      </c>
+      <c r="O17">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P17">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q17">
+        <v>0.38193562576</v>
+      </c>
+      <c r="R17">
+        <v>2.29161375456</v>
+      </c>
+      <c r="S17">
+        <v>0.0738333518043169</v>
+      </c>
+      <c r="T17">
+        <v>0.0662665035364538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6522289999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.304458</v>
+      </c>
+      <c r="I18">
+        <v>0.1996925243345945</v>
+      </c>
+      <c r="J18">
+        <v>0.1426218556854324</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.00535</v>
+      </c>
+      <c r="N18">
+        <v>0.01605</v>
+      </c>
+      <c r="O18">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P18">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q18">
+        <v>0.003489425149999999</v>
+      </c>
+      <c r="R18">
+        <v>0.0209365509</v>
+      </c>
+      <c r="S18">
+        <v>0.0006745533469995649</v>
+      </c>
+      <c r="T18">
+        <v>0.0006054214072922512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6522289999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.304458</v>
+      </c>
+      <c r="I19">
+        <v>0.1996925243345945</v>
+      </c>
+      <c r="J19">
+        <v>0.1426218556854324</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.171222</v>
+      </c>
+      <c r="O19">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P19">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q19">
+        <v>0.2546349846126666</v>
+      </c>
+      <c r="R19">
+        <v>1.527809907676</v>
+      </c>
+      <c r="S19">
+        <v>0.04922440624171492</v>
+      </c>
+      <c r="T19">
+        <v>0.04417961816147322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6522289999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.304458</v>
+      </c>
+      <c r="I20">
+        <v>0.1996925243345945</v>
+      </c>
+      <c r="J20">
+        <v>0.1426218556854324</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.652864</v>
+      </c>
+      <c r="O20">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P20">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q20">
+        <v>0.1419389446186667</v>
+      </c>
+      <c r="R20">
+        <v>0.8516336677119999</v>
+      </c>
+      <c r="S20">
+        <v>0.02743872874364636</v>
+      </c>
+      <c r="T20">
+        <v>0.02462665680065099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6522289999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.304458</v>
+      </c>
+      <c r="I21">
+        <v>0.1996925243345945</v>
+      </c>
+      <c r="J21">
+        <v>0.1426218556854324</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.940835</v>
+      </c>
+      <c r="O21">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P21">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q21">
+        <v>0.6329344356075</v>
+      </c>
+      <c r="R21">
+        <v>2.53173774243</v>
+      </c>
+      <c r="S21">
+        <v>0.1223548360022337</v>
+      </c>
+      <c r="T21">
+        <v>0.07321015931601599</v>
       </c>
     </row>
   </sheetData>
